--- a/00_Raw_Assests/quotes.xlsx
+++ b/00_Raw_Assests/quotes.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jeonw70450_masseyhigh_school_nz/Documents/Documents/COM301/Complex Database/Complex Database/Quotes_Database/00_Raw_Assests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/main/Documents/GitHub/Quotes_Database/00_Raw_Assests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="13_ncr:40009_{9D8BBAB9-FE52-49AE-80E4-CBD616388BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF9D18BE-221E-4E51-BF4E-B28DE2349D8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E6D0B0-230E-B743-AE96-E6BA729E13A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="4890" windowWidth="13200" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="500" windowWidth="14400" windowHeight="15020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
     <sheet name="Quotes" sheetId="1" r:id="rId2"/>
     <sheet name="Subject" sheetId="4" r:id="rId3"/>
     <sheet name="Authors" sheetId="3" r:id="rId4"/>
+    <sheet name="Jobs" sheetId="7" r:id="rId5"/>
+    <sheet name="Birth Country" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Authors!$A$1:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Authors!$A$1:$K$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotes!$A$1:$I$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="331">
   <si>
     <t>misattributed-eleanor-roosevelt</t>
   </si>
@@ -574,9 +576,6 @@
     <t>Romania</t>
   </si>
   <si>
-    <t>Political Activisit</t>
-  </si>
-  <si>
     <t>Radio Personality</t>
   </si>
   <si>
@@ -1016,13 +1015,31 @@
   </si>
   <si>
     <t>Subject3_ID</t>
+  </si>
+  <si>
+    <t>Country_ID</t>
+  </si>
+  <si>
+    <t>Country_1ID</t>
+  </si>
+  <si>
+    <t>Country_2ID</t>
+  </si>
+  <si>
+    <t>Job_ID</t>
+  </si>
+  <si>
+    <t>Job_1ID</t>
+  </si>
+  <si>
+    <t>Job_2ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,6 +1170,23 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1499,9 +1533,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1861,64 +1898,64 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -1933,26 +1970,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="1.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1" t="s">
         <v>136</v>
@@ -1961,25 +1998,25 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
         <v>323</v>
       </c>
-      <c r="G1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>324</v>
       </c>
-      <c r="I1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1988,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
         <v>73</v>
@@ -2012,7 +2049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2021,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
         <v>75</v>
@@ -2045,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -2078,7 +2115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2087,7 +2124,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
         <v>78</v>
@@ -2111,7 +2148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2120,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -2144,7 +2181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2153,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(E7,Subject!$A$1:$B$94,2)</f>
@@ -2177,7 +2214,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -2186,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -2210,7 +2247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2219,7 +2256,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
@@ -2243,7 +2280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2252,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -2276,7 +2313,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2285,7 +2322,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -2309,7 +2346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2318,7 +2355,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -2342,7 +2379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2351,7 +2388,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -2375,7 +2412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2384,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -2405,7 +2442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2414,7 +2451,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -2432,7 +2469,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2441,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -2459,7 +2496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2468,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -2489,7 +2526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2498,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
@@ -2522,7 +2559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -2531,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -2555,7 +2592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2564,7 +2601,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s">
         <v>78</v>
@@ -2585,7 +2622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2594,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
         <v>96</v>
@@ -2621,7 +2658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2630,7 +2667,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -2651,7 +2688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2660,7 +2697,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
@@ -2678,7 +2715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2687,20 +2724,20 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F24">
         <f>VLOOKUP(E24,Subject!$A$1:$B$94,2)</f>
         <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H24">
         <f>VLOOKUP(G24,Subject!$A$1:$B$94,2)</f>
@@ -2714,7 +2751,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2723,7 +2760,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -2744,7 +2781,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2753,7 +2790,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -2771,7 +2808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2780,7 +2817,7 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E27" t="s">
         <v>100</v>
@@ -2804,7 +2841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2813,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E28" t="s">
         <v>102</v>
@@ -2834,7 +2871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2843,7 +2880,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
@@ -2867,7 +2904,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2876,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -2894,7 +2931,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2903,7 +2940,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -2921,7 +2958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2930,7 +2967,7 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E32" t="s">
         <v>103</v>
@@ -2954,7 +2991,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2966,7 +3003,7 @@
         <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33">
         <f>VLOOKUP(E33,Subject!$A$1:$B$94,2)</f>
@@ -2984,7 +3021,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2993,7 +3030,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
         <v>86</v>
@@ -3011,7 +3048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3020,7 +3057,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D35" t="s">
         <v>106</v>
@@ -3033,7 +3070,7 @@
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H35">
         <f>VLOOKUP(G35,Subject!$A$1:$B$94,2)</f>
@@ -3044,7 +3081,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -3053,7 +3090,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E36" t="s">
         <v>107</v>
@@ -3074,7 +3111,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3083,7 +3120,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -3107,7 +3144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3116,7 +3153,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D38" t="s">
         <v>110</v>
@@ -3137,7 +3174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -3146,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E39" t="s">
         <v>111</v>
@@ -3170,7 +3207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3179,7 +3216,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E40" t="s">
         <v>78</v>
@@ -3200,7 +3237,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -3209,7 +3246,7 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -3227,7 +3264,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3236,7 +3273,7 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E42" t="s">
         <v>104</v>
@@ -3260,7 +3297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -3269,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E43" t="s">
         <v>78</v>
@@ -3293,7 +3330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -3302,31 +3339,31 @@
         <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F44">
         <f>VLOOKUP(E44,Subject!$A$1:$B$94,2)</f>
         <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H44">
         <f>VLOOKUP(G44,Subject!$A$1:$B$94,2)</f>
         <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J44">
         <f>VLOOKUP(I44,Subject!$A$1:$B$94,2)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -3335,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
         <v>114</v>
@@ -3356,7 +3393,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3365,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
@@ -3383,7 +3420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -3392,7 +3429,7 @@
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
         <v>1</v>
@@ -3410,7 +3447,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -3419,7 +3456,7 @@
         <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -3432,7 +3469,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H48">
         <f>VLOOKUP(G48,Subject!$A$1:$B$94,2)</f>
@@ -3443,7 +3480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3452,7 +3489,7 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" t="s">
         <v>115</v>
@@ -3473,7 +3510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -3482,17 +3519,17 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F50">
         <f>VLOOKUP(E50,Subject!$A$1:$B$94,2)</f>
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H50">
         <f>VLOOKUP(G50,Subject!$A$1:$B$94,2)</f>
@@ -3503,7 +3540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -3512,7 +3549,7 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
@@ -3530,7 +3567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -3539,7 +3576,7 @@
         <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E52" t="s">
         <v>86</v>
@@ -3560,7 +3597,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -3569,7 +3606,7 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D53" t="s">
         <v>116</v>
@@ -3593,7 +3630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -3602,7 +3639,7 @@
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -3622,14 +3659,14 @@
         <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J54">
         <f>VLOOKUP(I54,Subject!$A$1:$B$94,2)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3638,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -3656,7 +3693,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -3665,7 +3702,7 @@
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E56" t="s">
         <v>78</v>
@@ -3686,7 +3723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -3695,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -3708,7 +3745,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H57">
         <f>VLOOKUP(G57,Subject!$A$1:$B$94,2)</f>
@@ -3719,7 +3756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -3728,7 +3765,7 @@
         <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E58" t="s">
         <v>119</v>
@@ -3752,7 +3789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -3761,7 +3798,7 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E59" t="s">
         <v>78</v>
@@ -3782,7 +3819,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -3791,7 +3828,7 @@
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -3809,7 +3846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -3818,7 +3855,7 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -3842,7 +3879,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -3851,7 +3888,7 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -3869,7 +3906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -3878,10 +3915,10 @@
         <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F63">
         <f>VLOOKUP(E63,Subject!$A$1:$B$94,2)</f>
@@ -3899,7 +3936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -3908,7 +3945,7 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -3926,7 +3963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -3935,7 +3972,7 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E65" t="s">
         <v>1</v>
@@ -3953,7 +3990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -3962,7 +3999,7 @@
         <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E66" t="s">
         <v>121</v>
@@ -3986,7 +4023,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -3995,7 +4032,7 @@
         <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
@@ -4019,7 +4056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -4028,7 +4065,7 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E68" t="s">
         <v>123</v>
@@ -4049,7 +4086,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -4058,7 +4095,7 @@
         <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
@@ -4079,7 +4116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -4088,7 +4125,7 @@
         <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -4106,7 +4143,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -4133,7 +4170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -4142,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E72" t="s">
         <v>86</v>
@@ -4163,7 +4200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -4172,7 +4209,7 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -4190,7 +4227,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>57</v>
       </c>
@@ -4199,7 +4236,7 @@
         <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -4223,7 +4260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -4253,7 +4290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -4262,7 +4299,7 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E76" t="s">
         <v>78</v>
@@ -4283,7 +4320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -4292,7 +4329,7 @@
         <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
@@ -4310,7 +4347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -4319,7 +4356,7 @@
         <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s">
         <v>127</v>
@@ -4343,7 +4380,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -4373,7 +4410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -4382,7 +4419,7 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -4400,7 +4437,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -4409,7 +4446,7 @@
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E81" t="s">
         <v>78</v>
@@ -4433,7 +4470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -4442,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -4460,7 +4497,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -4469,7 +4506,7 @@
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -4493,7 +4530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -4502,7 +4539,7 @@
         <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -4520,7 +4557,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -4529,7 +4566,7 @@
         <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E85" t="s">
         <v>78</v>
@@ -4553,7 +4590,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -4562,7 +4599,7 @@
         <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E86" t="s">
         <v>79</v>
@@ -4583,7 +4620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -4592,7 +4629,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E87" t="s">
         <v>129</v>
@@ -4609,14 +4646,14 @@
         <v>71</v>
       </c>
       <c r="I87" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J87">
         <f>VLOOKUP(I87,Subject!$A$1:$B$94,2)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -4625,7 +4662,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
@@ -4643,7 +4680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -4652,7 +4689,7 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E89" t="s">
         <v>107</v>
@@ -4673,7 +4710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -4682,7 +4719,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D90" t="s">
         <v>130</v>
@@ -4703,7 +4740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -4712,7 +4749,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E91" t="s">
         <v>131</v>
@@ -4736,7 +4773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -4745,7 +4782,7 @@
         <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E92" t="s">
         <v>16</v>
@@ -4763,7 +4800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>63</v>
       </c>
@@ -4772,7 +4809,7 @@
         <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E93" t="s">
         <v>107</v>
@@ -4793,7 +4830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>64</v>
       </c>
@@ -4802,7 +4839,7 @@
         <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E94" t="s">
         <v>133</v>
@@ -4823,7 +4860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -4832,7 +4869,7 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
@@ -4850,7 +4887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -4859,7 +4896,7 @@
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
@@ -4877,7 +4914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -4886,7 +4923,7 @@
         <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E97" t="s">
         <v>18</v>
@@ -4896,7 +4933,7 @@
         <v>54</v>
       </c>
       <c r="G97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H97">
         <f>VLOOKUP(G97,Subject!$A$1:$B$94,2)</f>
@@ -4907,7 +4944,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>72</v>
       </c>
@@ -4916,7 +4953,7 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E98" t="s">
         <v>78</v>
@@ -4933,14 +4970,14 @@
         <v>13</v>
       </c>
       <c r="I98" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J98">
         <f>VLOOKUP(I98,Subject!$A$1:$B$94,2)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -4949,7 +4986,7 @@
         <v>39</v>
       </c>
       <c r="C99" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E99" t="s">
         <v>16</v>
@@ -4967,7 +5004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -4976,7 +5013,7 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -4994,7 +5031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -5003,7 +5040,7 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E101" t="s">
         <v>78</v>
@@ -5024,16 +5061,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B102">
         <f>VLOOKUP(Quotes!A102,Authors!$A$2:B104,2)</f>
         <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -5043,7 +5080,7 @@
         <v>47</v>
       </c>
       <c r="G102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H102">
         <f>VLOOKUP(G102,Subject!$A$1:$B$94,2)</f>
@@ -5057,16 +5094,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103">
         <f>VLOOKUP(Quotes!A103,Authors!$A$2:B105,2)</f>
         <v>47</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E103" t="s">
         <v>18</v>
@@ -5076,7 +5113,7 @@
         <v>54</v>
       </c>
       <c r="G103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H103">
         <f>VLOOKUP(G103,Subject!$A$1:$B$94,2)</f>
@@ -5103,20 +5140,20 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5124,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -5132,15 +5169,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -5148,7 +5185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -5156,7 +5193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5164,7 +5201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -5172,23 +5209,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -5196,7 +5233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -5204,7 +5241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -5212,7 +5249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -5220,7 +5257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -5228,7 +5265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -5236,7 +5273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -5244,7 +5281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -5252,7 +5289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -5260,7 +5297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5268,7 +5305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -5276,15 +5313,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -5292,7 +5329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -5300,7 +5337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -5308,23 +5345,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -5332,7 +5369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -5340,7 +5377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -5348,7 +5385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -5356,7 +5393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -5364,7 +5401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -5372,7 +5409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -5380,7 +5417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>138</v>
       </c>
@@ -5388,7 +5425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -5396,7 +5433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5404,7 +5441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -5412,23 +5449,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -5436,7 +5473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -5444,7 +5481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -5452,7 +5489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -5460,7 +5497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -5468,7 +5505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -5476,7 +5513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -5484,7 +5521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -5492,7 +5529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -5500,15 +5537,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -5516,7 +5553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5524,7 +5561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -5532,15 +5569,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -5548,7 +5585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -5556,7 +5593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -5564,7 +5601,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -5572,7 +5609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -5580,7 +5617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -5588,7 +5625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -5596,7 +5633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -5604,7 +5641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -5612,7 +5649,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -5620,7 +5657,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -5628,7 +5665,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -5636,7 +5673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -5644,15 +5681,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -5660,7 +5697,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -5668,7 +5705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -5676,7 +5713,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -5684,15 +5721,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -5700,7 +5737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -5708,7 +5745,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -5716,7 +5753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -5724,7 +5761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -5732,15 +5769,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -5748,7 +5785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -5756,7 +5793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>118</v>
       </c>
@@ -5764,7 +5801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -5772,7 +5809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -5780,15 +5817,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -5796,7 +5833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -5804,7 +5841,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -5812,7 +5849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -5820,15 +5857,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -5836,7 +5873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -5844,7 +5881,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -5852,7 +5889,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -5870,26 +5907,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="A13:H13"/>
+    <sheetView tabSelected="1" topLeftCell="G24" zoomScale="134" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>163</v>
@@ -5901,16 +5941,29 @@
         <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -5923,20 +5976,36 @@
       <c r="D2">
         <v>1879</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2">
+        <f>VLOOKUP(E2,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>161</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <f>VLOOKUP(G2,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>153</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2">
+        <f>VLOOKUP(I2,Jobs!$A$2:$B$27,2)</f>
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>VLOOKUP(K2,Jobs!$A$2:$B$27,2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -5952,14 +6021,30 @@
       <c r="E3" t="s">
         <v>154</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="2">
+        <f>VLOOKUP(E3,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H3" t="e">
+        <f>VLOOKUP(G3,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="s">
         <v>135</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3">
+        <f>VLOOKUP(I3,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f>VLOOKUP(K3,Jobs!$A$2:$B$27,2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -5975,11 +6060,27 @@
       <c r="E4" t="s">
         <v>159</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2">
+        <f>VLOOKUP(E4,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H4" t="e">
+        <f>VLOOKUP(G4,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>VLOOKUP(I4,Jobs!$A$2:$B$27,2)</f>
+        <v>19</v>
+      </c>
+      <c r="L4" t="e">
+        <f>VLOOKUP(K4,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5995,14 +6096,30 @@
       <c r="E5" t="s">
         <v>161</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="2">
+        <f>VLOOKUP(E5,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H5" t="e">
+        <f>VLOOKUP(G5,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="s">
         <v>135</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5">
+        <f>VLOOKUP(I5,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f>VLOOKUP(K5,Jobs!$A$2:$B$27,2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -6018,11 +6135,27 @@
       <c r="E6" t="s">
         <v>154</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="2">
+        <f>VLOOKUP(E6,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H6" t="e">
+        <f>VLOOKUP(G6,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>VLOOKUP(I6,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L6" t="e">
+        <f>VLOOKUP(K6,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -6038,17 +6171,33 @@
       <c r="E7" t="s">
         <v>166</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2">
+        <f>VLOOKUP(E7,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>161</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7">
+        <f>VLOOKUP(G7,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>135</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7">
+        <f>VLOOKUP(I7,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f>VLOOKUP(K7,Jobs!$A$2:$B$27,2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6064,17 +6213,33 @@
       <c r="E8" t="s">
         <v>170</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2">
+        <f>VLOOKUP(E8,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>161</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8">
+        <f>VLOOKUP(G8,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>171</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8">
+        <f>VLOOKUP(I8,Jobs!$A$2:$B$27,2)</f>
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f>VLOOKUP(K8,Jobs!$A$2:$B$27,2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -6090,14 +6255,30 @@
       <c r="E9" t="s">
         <v>159</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="2">
+        <f>VLOOKUP(E9,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H9" t="e">
+        <f>VLOOKUP(G9,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="s">
         <v>135</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9">
+        <f>VLOOKUP(I9,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f>VLOOKUP(K9,Jobs!$A$2:$B$27,2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -6113,17 +6294,33 @@
       <c r="E10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2">
+        <f>VLOOKUP(E10,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
         <v>161</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10">
+        <f>VLOOKUP(G10,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>160</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10">
+        <f>VLOOKUP(I10,Jobs!$A$2:$B$27,2)</f>
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f>VLOOKUP(K10,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -6139,11 +6336,27 @@
       <c r="E11" t="s">
         <v>161</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="2">
+        <f>VLOOKUP(E11,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H11" t="e">
+        <f>VLOOKUP(G11,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f>VLOOKUP(I11,Jobs!$A$2:$B$27,2)</f>
+        <v>5</v>
+      </c>
+      <c r="L11" t="e">
+        <f>VLOOKUP(K11,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -6159,11 +6372,27 @@
       <c r="E12" t="s">
         <v>161</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="2">
+        <f>VLOOKUP(E12,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H12" t="e">
+        <f>VLOOKUP(G12,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>VLOOKUP(I12,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L12" t="e">
+        <f>VLOOKUP(K12,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -6179,14 +6408,30 @@
       <c r="E13" t="s">
         <v>161</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="2">
+        <f>VLOOKUP(E13,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H13" t="e">
+        <f>VLOOKUP(G13,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="s">
         <v>135</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13">
+        <f>VLOOKUP(I13,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>VLOOKUP(K13,Jobs!$A$2:$B$27,2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -6202,14 +6447,30 @@
       <c r="E14" t="s">
         <v>161</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="2">
+        <f>VLOOKUP(E14,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H14" t="e">
+        <f>VLOOKUP(G14,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" t="s">
         <v>160</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14">
+        <f>VLOOKUP(I14,Jobs!$A$2:$B$27,2)</f>
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>VLOOKUP(K14,Jobs!$A$2:$B$27,2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -6225,14 +6486,30 @@
       <c r="E15" t="s">
         <v>161</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="2">
+        <f>VLOOKUP(E15,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H15" t="e">
+        <f>VLOOKUP(G15,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" t="s">
         <v>176</v>
       </c>
-      <c r="H15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>VLOOKUP(I15,Jobs!$A$2:$B$27,2)</f>
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP(K15,Jobs!$A$2:$B$27,2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6248,17 +6525,33 @@
       <c r="E16" t="s">
         <v>177</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2">
+        <f>VLOOKUP(E16,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>161</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <f>VLOOKUP(G16,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
         <v>135</v>
       </c>
-      <c r="H16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f>VLOOKUP(I16,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP(K16,Jobs!$A$2:$B$27,2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -6274,14 +6567,30 @@
       <c r="E17" t="s">
         <v>161</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2">
+        <f>VLOOKUP(E17,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
         <v>161</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17">
+        <f>VLOOKUP(G17,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>VLOOKUP(I17,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L17" t="e">
+        <f>VLOOKUP(K17,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -6297,14 +6606,30 @@
       <c r="E18" t="s">
         <v>152</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2">
+        <f>VLOOKUP(E18,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
         <v>152</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18">
+        <f>VLOOKUP(G18,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>VLOOKUP(I18,Jobs!$A$2:$B$27,2)</f>
+        <v>15</v>
+      </c>
+      <c r="L18" t="e">
+        <f>VLOOKUP(K18,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6320,14 +6645,30 @@
       <c r="E19" t="s">
         <v>161</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" s="2">
+        <f>VLOOKUP(E19,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H19" t="e">
+        <f>VLOOKUP(G19,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="s">
         <v>135</v>
       </c>
-      <c r="H19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>VLOOKUP(I19,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19">
+        <f>VLOOKUP(K19,Jobs!$A$2:$B$27,2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -6341,19 +6682,35 @@
         <v>1856</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="2">
+        <f>VLOOKUP(E20,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
         <v>161</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20">
+        <f>VLOOKUP(G20,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
         <v>155</v>
       </c>
-      <c r="H20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>VLOOKUP(I20,Jobs!$A$2:$B$27,2)</f>
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20">
+        <f>VLOOKUP(K20,Jobs!$A$2:$B$27,2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -6369,14 +6726,30 @@
       <c r="E21" t="s">
         <v>161</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" s="2">
+        <f>VLOOKUP(E21,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H21" t="e">
+        <f>VLOOKUP(G21,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21">
+        <f>VLOOKUP(I21,Jobs!$A$2:$B$27,2)</f>
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
         <v>181</v>
       </c>
-      <c r="H21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>VLOOKUP(K21,Jobs!$A$2:$B$27,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -6392,14 +6765,30 @@
       <c r="E22" t="s">
         <v>159</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" s="2">
+        <f>VLOOKUP(E22,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H22" t="e">
+        <f>VLOOKUP(G22,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="s">
         <v>135</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22">
+        <f>VLOOKUP(I22,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f>VLOOKUP(K22,Jobs!$A$2:$B$27,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -6415,11 +6804,27 @@
       <c r="E23" t="s">
         <v>161</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" s="2">
+        <f>VLOOKUP(E23,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H23" t="e">
+        <f>VLOOKUP(G23,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I23" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>VLOOKUP(I23,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L23" t="e">
+        <f>VLOOKUP(K23,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -6435,11 +6840,27 @@
       <c r="E24" t="s">
         <v>161</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" s="2">
+        <f>VLOOKUP(E24,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H24" t="e">
+        <f>VLOOKUP(G24,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>VLOOKUP(I24,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L24" t="e">
+        <f>VLOOKUP(K24,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -6453,13 +6874,29 @@
         <v>1949</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="2">
+        <f>VLOOKUP(E25,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H25" t="e">
+        <f>VLOOKUP(G25,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f>VLOOKUP(I25,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L25" t="e">
+        <f>VLOOKUP(K25,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -6475,14 +6912,30 @@
       <c r="E26" t="s">
         <v>161</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" s="2">
+        <f>VLOOKUP(E26,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H26" t="e">
+        <f>VLOOKUP(G26,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="s">
         <v>135</v>
       </c>
-      <c r="H26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f>VLOOKUP(I26,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP(K26,Jobs!$A$2:$B$27,2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -6498,11 +6951,27 @@
       <c r="E27" t="s">
         <v>161</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" s="2">
+        <f>VLOOKUP(E27,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H27" t="e">
+        <f>VLOOKUP(G27,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f>VLOOKUP(I27,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L27" t="e">
+        <f>VLOOKUP(K27,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -6518,11 +6987,27 @@
       <c r="E28" t="s">
         <v>159</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" s="2">
+        <f>VLOOKUP(E28,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H28" t="e">
+        <f>VLOOKUP(G28,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>VLOOKUP(I28,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L28" t="e">
+        <f>VLOOKUP(K28,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -6538,11 +7023,27 @@
       <c r="E29" t="s">
         <v>159</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" s="2">
+        <f>VLOOKUP(E29,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H29" t="e">
+        <f>VLOOKUP(G29,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f>VLOOKUP(I29,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L29" t="e">
+        <f>VLOOKUP(K29,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -6556,19 +7057,35 @@
         <v>1892</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="2">
+        <f>VLOOKUP(E30,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
         <v>159</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30">
+        <f>VLOOKUP(G30,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
         <v>135</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30">
+        <f>VLOOKUP(I30,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f>VLOOKUP(K30,Jobs!$A$2:$B$27,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -6584,17 +7101,33 @@
       <c r="E31" t="s">
         <v>161</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2">
+        <f>VLOOKUP(E31,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
         <v>154</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31">
+        <f>VLOOKUP(G31,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
         <v>135</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31">
+        <f>VLOOKUP(I31,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f>VLOOKUP(K31,Jobs!$A$2:$B$27,2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -6610,11 +7143,27 @@
       <c r="E32" t="s">
         <v>159</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F32" s="2">
+        <f>VLOOKUP(E32,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H32" t="e">
+        <f>VLOOKUP(G32,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f>VLOOKUP(I32,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L32" t="e">
+        <f>VLOOKUP(K32,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6630,14 +7179,30 @@
       <c r="E33" t="s">
         <v>161</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" s="2">
+        <f>VLOOKUP(E33,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H33" t="e">
+        <f>VLOOKUP(G33,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33">
+        <f>VLOOKUP(I33,Jobs!$A$2:$B$27,2)</f>
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
         <v>185</v>
       </c>
-      <c r="H33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f>VLOOKUP(K33,Jobs!$A$2:$B$27,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -6653,14 +7218,30 @@
       <c r="E34" t="s">
         <v>161</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" s="2">
+        <f>VLOOKUP(E34,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H34" t="e">
+        <f>VLOOKUP(G34,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="s">
         <v>171</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34">
+        <f>VLOOKUP(I34,Jobs!$A$2:$B$27,2)</f>
+        <v>12</v>
+      </c>
+      <c r="K34" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f>VLOOKUP(K34,Jobs!$A$2:$B$27,2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -6676,17 +7257,33 @@
       <c r="E35" t="s">
         <v>159</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2">
+        <f>VLOOKUP(E35,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
         <v>161</v>
       </c>
-      <c r="G35" t="s">
-        <v>187</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="H35">
+        <f>VLOOKUP(G35,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35">
+        <f>VLOOKUP(I35,Jobs!$A$2:$B$27,2)</f>
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f>VLOOKUP(K35,Jobs!$A$2:$B$27,2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -6700,19 +7297,35 @@
         <v>1899</v>
       </c>
       <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="2">
+        <f>VLOOKUP(E36,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
         <v>188</v>
       </c>
-      <c r="F36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36">
+        <f>VLOOKUP(G36,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
         <v>135</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36">
+        <f>VLOOKUP(I36,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f>VLOOKUP(K36,Jobs!$A$2:$B$27,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -6726,19 +7339,35 @@
         <v>1965</v>
       </c>
       <c r="E37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="2">
+        <f>VLOOKUP(E37,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37">
+        <f>VLOOKUP(G37,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37">
+        <f>VLOOKUP(I37,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
         <v>190</v>
       </c>
-      <c r="F37" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f>VLOOKUP(K37,Jobs!$A$2:$B$27,2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -6754,14 +7383,30 @@
       <c r="E38" t="s">
         <v>161</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F38" s="2">
+        <f>VLOOKUP(E38,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H38" t="e">
+        <f>VLOOKUP(G38,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38" t="s">
         <v>135</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38">
+        <f>VLOOKUP(I38,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f>VLOOKUP(K38,Jobs!$A$2:$B$27,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -6777,17 +7422,33 @@
       <c r="E39" t="s">
         <v>161</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2">
+        <f>VLOOKUP(E39,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" t="e">
+        <f>VLOOKUP(G39,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39">
+        <f>VLOOKUP(I39,Jobs!$A$2:$B$27,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
         <v>192</v>
       </c>
-      <c r="G39" t="s">
-        <v>182</v>
-      </c>
-      <c r="H39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f>VLOOKUP(K39,Jobs!$A$2:$B$27,2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -6803,11 +7464,27 @@
       <c r="E40" t="s">
         <v>161</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" s="2">
+        <f>VLOOKUP(E40,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H40" t="e">
+        <f>VLOOKUP(G40,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f>VLOOKUP(I40,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L40" t="e">
+        <f>VLOOKUP(K40,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -6823,11 +7500,27 @@
       <c r="E41" t="s">
         <v>161</v>
       </c>
-      <c r="G41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="2">
+        <f>VLOOKUP(E41,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H41" t="e">
+        <f>VLOOKUP(G41,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I41" t="s">
+        <v>193</v>
+      </c>
+      <c r="J41">
+        <f>VLOOKUP(I41,Jobs!$A$2:$B$27,2)</f>
+        <v>21</v>
+      </c>
+      <c r="L41" t="e">
+        <f>VLOOKUP(K41,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -6841,19 +7534,35 @@
         <v>1910</v>
       </c>
       <c r="E42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="2">
+        <f>VLOOKUP(E42,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
         <v>195</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42">
+        <f>VLOOKUP(G42,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
         <v>196</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42">
+        <f>VLOOKUP(I42,Jobs!$A$2:$B$27,2)</f>
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
         <v>197</v>
       </c>
-      <c r="H42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f>VLOOKUP(K42,Jobs!$A$2:$B$27,2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -6867,16 +7576,32 @@
         <v>1904</v>
       </c>
       <c r="E43" t="s">
-        <v>199</v>
-      </c>
-      <c r="G43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="2">
+        <f>VLOOKUP(E43,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H43" t="e">
+        <f>VLOOKUP(G43,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I43" t="s">
         <v>160</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43">
+        <f>VLOOKUP(I43,Jobs!$A$2:$B$27,2)</f>
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f>VLOOKUP(K43,Jobs!$A$2:$B$27,2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -6892,14 +7617,30 @@
       <c r="E44" t="s">
         <v>161</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F44" s="2">
+        <f>VLOOKUP(E44,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H44" t="e">
+        <f>VLOOKUP(G44,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I44" t="s">
         <v>160</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44">
+        <f>VLOOKUP(I44,Jobs!$A$2:$B$27,2)</f>
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f>VLOOKUP(K44,Jobs!$A$2:$B$27,2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -6915,11 +7656,27 @@
       <c r="E45" t="s">
         <v>161</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F45" s="2">
+        <f>VLOOKUP(E45,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H45" t="e">
+        <f>VLOOKUP(G45,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I45" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f>VLOOKUP(I45,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L45" t="e">
+        <f>VLOOKUP(K45,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -6935,14 +7692,30 @@
       <c r="E46" t="s">
         <v>161</v>
       </c>
-      <c r="G46" t="s">
-        <v>182</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="F46" s="2">
+        <f>VLOOKUP(E46,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H46" t="e">
+        <f>VLOOKUP(G46,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I46" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f>VLOOKUP(I46,Jobs!$A$2:$B$27,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>180</v>
+      </c>
+      <c r="L46">
+        <f>VLOOKUP(K46,Jobs!$A$2:$B$27,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -6958,11 +7731,27 @@
       <c r="E47" t="s">
         <v>161</v>
       </c>
-      <c r="G47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="2">
+        <f>VLOOKUP(E47,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H47" t="e">
+        <f>VLOOKUP(G47,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I47" t="s">
+        <v>181</v>
+      </c>
+      <c r="J47">
+        <f>VLOOKUP(I47,Jobs!$A$2:$B$27,2)</f>
+        <v>1</v>
+      </c>
+      <c r="L47" t="e">
+        <f>VLOOKUP(K47,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -6978,11 +7767,27 @@
       <c r="E48" t="s">
         <v>159</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F48" s="2">
+        <f>VLOOKUP(E48,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H48" t="e">
+        <f>VLOOKUP(G48,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I48" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f>VLOOKUP(I48,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L48" t="e">
+        <f>VLOOKUP(K48,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -6998,11 +7803,27 @@
       <c r="E49" t="s">
         <v>161</v>
       </c>
-      <c r="G49" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="2">
+        <f>VLOOKUP(E49,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H49" t="e">
+        <f>VLOOKUP(G49,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I49" t="s">
+        <v>199</v>
+      </c>
+      <c r="J49">
+        <f>VLOOKUP(I49,Jobs!$A$2:$B$27,2)</f>
+        <v>9</v>
+      </c>
+      <c r="L49" t="e">
+        <f>VLOOKUP(K49,Jobs!$A$2:$B$27,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -7018,14 +7839,30 @@
       <c r="E50" t="s">
         <v>161</v>
       </c>
-      <c r="G50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="F50" s="2">
+        <f>VLOOKUP(E50,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H50" t="e">
+        <f>VLOOKUP(G50,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I50" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f>VLOOKUP(I50,Jobs!$A$2:$B$27,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>180</v>
+      </c>
+      <c r="L50">
+        <f>VLOOKUP(K50,Jobs!$A$2:$B$27,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -7041,16 +7878,32 @@
       <c r="E51" t="s">
         <v>159</v>
       </c>
-      <c r="G51" t="s">
-        <v>201</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="F51" s="2">
+        <f>VLOOKUP(E51,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H51" t="e">
+        <f>VLOOKUP(G51,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I51" t="s">
+        <v>200</v>
+      </c>
+      <c r="J51">
+        <f>VLOOKUP(I51,Jobs!$A$2:$B$27,2)</f>
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <f>VLOOKUP(K51,Jobs!$A$2:$B$27,2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -7062,13 +7915,29 @@
         <v>1869</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
-      </c>
-      <c r="G52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="2">
+        <f>VLOOKUP(E52,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H52" t="e">
+        <f>VLOOKUP(G52,'Birth Country'!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I52" t="s">
         <v>135</v>
       </c>
-      <c r="H52" t="s">
-        <v>178</v>
+      <c r="J52">
+        <f>VLOOKUP(I52,Jobs!$A$2:$B$27,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K52" t="s">
+        <v>193</v>
+      </c>
+      <c r="L52">
+        <f>VLOOKUP(K52,Jobs!$A$2:$B$27,2)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7078,4 +7947,400 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19907EAC-9A71-FF47-AB6A-5A3BE72181CF}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B102">
+    <sortCondition ref="A2:A102"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36563A-742C-A54F-9859-E47D3F74C657}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B103">
+    <sortCondition ref="A2:A103"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>